--- a/html/testes.xlsx
+++ b/html/testes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,18 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descrição</t>
   </si>
   <si>
     <t xml:space="preserve">valor</t>
   </si>
   <si>
-    <t xml:space="preserve">teste</t>
+    <t xml:space="preserve">descrição</t>
   </si>
   <si>
     <t xml:space="preserve">-1.50</t>
@@ -151,8 +148,8 @@
   </sheetPr>
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -167,20 +164,14 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="n">
         <v>1633</v>
       </c>
@@ -189,9 +180,6 @@
       <c r="A3" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2" t="n">
         <v>1475</v>
       </c>
@@ -200,9 +188,6 @@
       <c r="A4" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="2" t="n">
         <v>2045</v>
       </c>
@@ -211,9 +196,6 @@
       <c r="A5" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="2" t="n">
         <v>872</v>
       </c>
@@ -222,9 +204,6 @@
       <c r="A6" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="2" t="n">
         <v>793</v>
       </c>
@@ -233,9 +212,6 @@
       <c r="A7" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C7" s="2" t="n">
         <v>1309</v>
       </c>
@@ -244,9 +220,6 @@
       <c r="A8" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" s="2" t="n">
         <v>893</v>
       </c>
@@ -255,9 +228,6 @@
       <c r="A9" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" s="2" t="n">
         <v>1113</v>
       </c>
@@ -266,9 +236,6 @@
       <c r="A10" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="2" t="n">
         <v>944</v>
       </c>
@@ -277,9 +244,6 @@
       <c r="A11" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C11" s="2" t="n">
         <v>834</v>
       </c>
@@ -288,9 +252,6 @@
       <c r="A12" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C12" s="2" t="n">
         <v>1408</v>
       </c>
@@ -299,9 +260,6 @@
       <c r="A13" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C13" s="2" t="n">
         <v>746</v>
       </c>
@@ -310,9 +268,6 @@
       <c r="A14" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C14" s="2" t="n">
         <v>658</v>
       </c>
@@ -321,9 +276,6 @@
       <c r="A15" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C15" s="2" t="n">
         <v>766</v>
       </c>
@@ -332,9 +284,6 @@
       <c r="A16" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C16" s="2" t="n">
         <v>831</v>
       </c>
@@ -343,9 +292,6 @@
       <c r="A17" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C17" s="2" t="n">
         <v>1176</v>
       </c>
@@ -354,9 +300,6 @@
       <c r="A18" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" s="2" t="n">
         <v>901</v>
       </c>
@@ -365,9 +308,6 @@
       <c r="A19" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C19" s="2" t="n">
         <v>667</v>
       </c>
@@ -376,9 +316,6 @@
       <c r="A20" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C20" s="2" t="n">
         <v>672</v>
       </c>
@@ -387,9 +324,6 @@
       <c r="A21" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C21" s="2" t="n">
         <v>703</v>
       </c>
@@ -398,9 +332,6 @@
       <c r="A22" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C22" s="2" t="n">
         <v>679</v>
       </c>
@@ -409,9 +340,6 @@
       <c r="A23" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C23" s="2" t="n">
         <v>766</v>
       </c>
@@ -420,9 +348,6 @@
       <c r="A24" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C24" s="2" t="n">
         <v>586</v>
       </c>
@@ -431,9 +356,6 @@
       <c r="A25" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C25" s="2" t="n">
         <v>689</v>
       </c>
@@ -442,9 +364,6 @@
       <c r="A26" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C26" s="2" t="n">
         <v>227</v>
       </c>
@@ -453,9 +372,6 @@
       <c r="A27" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C27" s="2" t="n">
         <v>689</v>
       </c>
@@ -464,9 +380,6 @@
       <c r="A28" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C28" s="2" t="n">
         <v>679</v>
       </c>
@@ -475,9 +388,6 @@
       <c r="A29" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C29" s="2" t="n">
         <v>586</v>
       </c>
@@ -486,9 +396,6 @@
       <c r="A30" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C30" s="2" t="n">
         <v>586</v>
       </c>
@@ -497,9 +404,6 @@
       <c r="A31" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C31" s="2" t="n">
         <v>679</v>
       </c>
@@ -508,9 +412,6 @@
       <c r="A32" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C32" s="2" t="n">
         <v>679</v>
       </c>
@@ -519,9 +420,6 @@
       <c r="A33" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C33" s="2" t="n">
         <v>679</v>
       </c>
@@ -530,9 +428,6 @@
       <c r="A34" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C34" s="2" t="n">
         <v>679</v>
       </c>
@@ -540,9 +435,6 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>42447</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>469</v>
@@ -552,9 +444,6 @@
       <c r="A36" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C36" s="2" t="n">
         <v>64.44</v>
       </c>
@@ -563,9 +452,6 @@
       <c r="A37" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C37" s="2" t="n">
         <v>197.86</v>
       </c>
@@ -574,9 +460,6 @@
       <c r="A38" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C38" s="2" t="n">
         <v>3656.16</v>
       </c>
@@ -585,9 +468,6 @@
       <c r="A39" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C39" s="2" t="n">
         <v>408.45</v>
       </c>
@@ -596,9 +476,6 @@
       <c r="A40" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C40" s="2" t="n">
         <v>5316.54</v>
       </c>
@@ -607,9 +484,6 @@
       <c r="A41" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C41" s="2" t="n">
         <v>272.9</v>
       </c>
@@ -618,9 +492,6 @@
       <c r="A42" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C42" s="2" t="n">
         <v>208.72</v>
       </c>
@@ -629,9 +500,6 @@
       <c r="A43" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C43" s="2" t="n">
         <v>3584.7</v>
       </c>
@@ -640,9 +508,6 @@
       <c r="A44" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C44" s="2" t="n">
         <v>3913.02</v>
       </c>
@@ -651,9 +516,6 @@
       <c r="A45" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C45" s="2" t="n">
         <v>3061.94</v>
       </c>
@@ -662,9 +524,6 @@
       <c r="A46" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C46" s="2" t="n">
         <v>4698.9</v>
       </c>
@@ -673,9 +532,6 @@
       <c r="A47" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C47" s="2" t="n">
         <v>5358.24</v>
       </c>
@@ -684,9 +540,6 @@
       <c r="A48" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C48" s="2" t="n">
         <v>4334.63</v>
       </c>
@@ -694,9 +547,6 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>42447</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>15868.33</v>
@@ -706,9 +556,6 @@
       <c r="A50" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" s="2" t="n">
         <v>2947.77</v>
       </c>
@@ -717,9 +564,6 @@
       <c r="A51" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C51" s="2" t="n">
         <v>201.49</v>
       </c>
@@ -727,9 +571,6 @@
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>42447</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>77.07</v>
@@ -739,9 +580,6 @@
       <c r="A53" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C53" s="2" t="n">
         <v>377.06</v>
       </c>
@@ -750,9 +588,6 @@
       <c r="A54" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C54" s="2" t="n">
         <v>40.55</v>
       </c>
@@ -761,9 +596,6 @@
       <c r="A55" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C55" s="2" t="n">
         <v>13.57</v>
       </c>
@@ -772,9 +604,6 @@
       <c r="A56" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C56" s="2" t="n">
         <v>143</v>
       </c>
@@ -783,9 +612,6 @@
       <c r="A57" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C57" s="2" t="n">
         <v>256.65</v>
       </c>
@@ -794,9 +620,6 @@
       <c r="A58" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C58" s="2" t="n">
         <v>7628</v>
       </c>
@@ -805,9 +628,6 @@
       <c r="A59" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C59" s="2" t="n">
         <v>372</v>
       </c>
@@ -816,9 +636,6 @@
       <c r="A60" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C60" s="2" t="n">
         <v>8060.45</v>
       </c>
@@ -827,9 +644,6 @@
       <c r="A61" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C61" s="2" t="n">
         <v>374.81</v>
       </c>
@@ -838,9 +652,6 @@
       <c r="A62" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C62" s="2" t="n">
         <v>380.12</v>
       </c>
@@ -849,9 +660,6 @@
       <c r="A63" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C63" s="2" t="n">
         <v>786.25</v>
       </c>
@@ -860,9 +668,6 @@
       <c r="A64" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C64" s="2" t="n">
         <v>196.27</v>
       </c>
@@ -870,9 +675,6 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
         <v>42447</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3300</v>
@@ -882,9 +684,6 @@
       <c r="A66" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C66" s="2" t="n">
         <v>325</v>
       </c>
@@ -893,9 +692,6 @@
       <c r="A67" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C67" s="2" t="n">
         <v>1300</v>
       </c>
@@ -904,9 +700,6 @@
       <c r="A68" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C68" s="2" t="n">
         <v>1416.67</v>
       </c>
@@ -915,9 +708,6 @@
       <c r="A69" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C69" s="2" t="n">
         <v>325.38</v>
       </c>
@@ -926,9 +716,6 @@
       <c r="A70" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C70" s="2" t="n">
         <v>1300</v>
       </c>
@@ -937,9 +724,6 @@
       <c r="A71" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C71" s="2" t="n">
         <v>615</v>
       </c>
@@ -948,9 +732,6 @@
       <c r="A72" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C72" s="2" t="n">
         <v>364.68</v>
       </c>
@@ -959,9 +740,6 @@
       <c r="A73" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C73" s="2" t="n">
         <v>700</v>
       </c>
@@ -970,9 +748,6 @@
       <c r="A74" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C74" s="2" t="n">
         <v>500</v>
       </c>
@@ -981,9 +756,6 @@
       <c r="A75" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C75" s="2" t="n">
         <v>103.05</v>
       </c>
@@ -992,9 +764,6 @@
       <c r="A76" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C76" s="2" t="n">
         <v>500</v>
       </c>
@@ -1003,9 +772,6 @@
       <c r="A77" s="3" t="n">
         <v>42434</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C77" s="2" t="n">
         <v>11627.1</v>
       </c>
@@ -1014,9 +780,6 @@
       <c r="A78" s="3" t="n">
         <v>42441</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C78" s="2" t="n">
         <v>300.39</v>
       </c>
@@ -1025,9 +788,6 @@
       <c r="A79" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C79" s="2" t="n">
         <v>12384</v>
       </c>
@@ -1036,9 +796,6 @@
       <c r="A80" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C80" s="2" t="n">
         <v>1414.22</v>
       </c>
@@ -1047,9 +804,6 @@
       <c r="A81" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C81" s="2" t="n">
         <v>3466.44</v>
       </c>
@@ -1058,9 +812,6 @@
       <c r="A82" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C82" s="2" t="n">
         <v>41.01</v>
       </c>
@@ -1069,9 +820,6 @@
       <c r="A83" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C83" s="2" t="n">
         <v>3636.84</v>
       </c>
@@ -1080,9 +828,6 @@
       <c r="A84" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C84" s="2" t="n">
         <v>1721.15</v>
       </c>
@@ -1091,9 +836,6 @@
       <c r="A85" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C85" s="2" t="n">
         <v>1150.67</v>
       </c>
@@ -1102,9 +844,6 @@
       <c r="A86" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C86" s="2" t="n">
         <v>1013.65</v>
       </c>
@@ -1113,9 +852,6 @@
       <c r="A87" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C87" s="2" t="n">
         <v>67.06</v>
       </c>
@@ -1123,9 +859,6 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="n">
         <v>42433</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>95.62</v>
@@ -1135,9 +868,6 @@
       <c r="A89" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C89" s="2" t="n">
         <v>38</v>
       </c>
@@ -1146,9 +876,6 @@
       <c r="A90" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C90" s="2" t="n">
         <v>119</v>
       </c>
@@ -1157,9 +884,6 @@
       <c r="A91" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C91" s="2" t="n">
         <v>84</v>
       </c>
@@ -1168,9 +892,6 @@
       <c r="A92" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C92" s="2" t="n">
         <v>209.5</v>
       </c>
@@ -1179,9 +900,6 @@
       <c r="A93" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C93" s="2" t="n">
         <v>111.5</v>
       </c>
@@ -1190,9 +908,6 @@
       <c r="A94" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C94" s="2" t="n">
         <v>508.5</v>
       </c>
@@ -1201,9 +916,6 @@
       <c r="A95" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C95" s="2" t="n">
         <v>60</v>
       </c>
@@ -1212,9 +924,6 @@
       <c r="A96" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C96" s="2" t="n">
         <v>1393.67</v>
       </c>
@@ -1223,9 +932,6 @@
       <c r="A97" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C97" s="2" t="n">
         <v>22.28</v>
       </c>
@@ -1234,9 +940,6 @@
       <c r="A98" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C98" s="2" t="n">
         <v>69.05</v>
       </c>
@@ -1245,9 +948,6 @@
       <c r="A99" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C99" s="2" t="n">
         <v>1571.75</v>
       </c>
@@ -1256,9 +956,6 @@
       <c r="A100" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C100" s="2" t="n">
         <v>304.2</v>
       </c>
@@ -1267,9 +964,6 @@
       <c r="A101" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C101" s="2" t="n">
         <v>737.81</v>
       </c>
@@ -1278,9 +972,6 @@
       <c r="A102" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C102" s="2" t="n">
         <v>155</v>
       </c>
@@ -1289,9 +980,6 @@
       <c r="A103" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C103" s="2" t="n">
         <v>3797.6</v>
       </c>
@@ -1300,9 +988,6 @@
       <c r="A104" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C104" s="2" t="n">
         <v>4612.39</v>
       </c>
@@ -1311,9 +996,6 @@
       <c r="A105" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C105" s="2" t="n">
         <v>1000</v>
       </c>
@@ -1322,9 +1004,6 @@
       <c r="A106" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C106" s="2" t="n">
         <v>1738</v>
       </c>
@@ -1332,9 +1011,6 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="n">
         <v>42458</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="C107" s="2" t="n">
         <v>1282</v>
@@ -1358,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J201" activeCellId="0" sqref="J201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,19 +1051,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C2" s="2" t="n">
         <v>-2.91</v>
       </c>
@@ -1396,9 +1069,6 @@
       <c r="A3" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="2" t="n">
         <v>-3913.02</v>
       </c>
@@ -1407,9 +1077,6 @@
       <c r="A4" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" s="2" t="n">
         <v>-3061.94</v>
       </c>
@@ -1418,9 +1085,6 @@
       <c r="A5" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="2" t="n">
         <v>-3797.6</v>
       </c>
@@ -1429,9 +1093,6 @@
       <c r="A6" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="2" t="n">
         <v>-1013.65</v>
       </c>
@@ -1440,20 +1101,14 @@
       <c r="A7" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" s="2" t="n">
         <v>-76</v>
       </c>
@@ -1462,9 +1117,6 @@
       <c r="A9" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" s="2" t="n">
         <v>7155.48</v>
       </c>
@@ -1473,9 +1125,6 @@
       <c r="A10" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" s="2" t="n">
         <v>3252.94</v>
       </c>
@@ -1484,9 +1133,6 @@
       <c r="A11" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C11" s="2" t="n">
         <v>0.08</v>
       </c>
@@ -1495,9 +1141,6 @@
       <c r="A12" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D12" s="0" t="n">
         <v>23259.14</v>
       </c>
@@ -1506,9 +1149,6 @@
       <c r="A13" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D13" s="0" t="n">
         <v>3252.94</v>
       </c>
@@ -1517,9 +1157,6 @@
       <c r="A14" s="3" t="n">
         <v>42430</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" s="0" t="n">
         <v>20006.2</v>
       </c>
@@ -1528,9 +1165,6 @@
       <c r="A15" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C15" s="2" t="n">
         <v>-4</v>
       </c>
@@ -1539,9 +1173,6 @@
       <c r="A16" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C16" s="2" t="n">
         <v>444.84</v>
       </c>
@@ -1550,9 +1181,6 @@
       <c r="A17" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C17" s="2" t="n">
         <v>-43</v>
       </c>
@@ -1561,9 +1189,6 @@
       <c r="A18" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" s="2" t="n">
         <v>12</v>
       </c>
@@ -1572,9 +1197,6 @@
       <c r="A19" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D19" s="0" t="n">
         <v>23644.98</v>
       </c>
@@ -1583,9 +1205,6 @@
       <c r="A20" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D20" s="0" t="n">
         <v>444.84</v>
       </c>
@@ -1594,9 +1213,6 @@
       <c r="A21" s="3" t="n">
         <v>42431</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D21" s="0" t="n">
         <v>23200.14</v>
       </c>
@@ -1605,9 +1221,6 @@
       <c r="A22" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C22" s="2" t="n">
         <v>-1633</v>
       </c>
@@ -1616,9 +1229,6 @@
       <c r="A23" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C23" s="2" t="n">
         <v>-16764</v>
       </c>
@@ -1627,9 +1237,6 @@
       <c r="A24" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C24" s="2" t="n">
         <v>-95.62</v>
       </c>
@@ -1638,9 +1245,6 @@
       <c r="A25" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C25" s="2" t="n">
         <v>-67.06</v>
       </c>
@@ -1649,9 +1253,6 @@
       <c r="A26" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C26" s="2" t="n">
         <v>-3</v>
       </c>
@@ -1660,9 +1261,6 @@
       <c r="A27" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C27" s="2" t="n">
         <v>-21</v>
       </c>
@@ -1671,9 +1269,6 @@
       <c r="A28" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C28" s="2" t="n">
         <v>-32</v>
       </c>
@@ -1682,9 +1277,6 @@
       <c r="A29" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C29" s="2" t="n">
         <v>899.28</v>
       </c>
@@ -1693,9 +1285,6 @@
       <c r="A30" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C30" s="2" t="n">
         <v>2585.95</v>
       </c>
@@ -1704,9 +1293,6 @@
       <c r="A31" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C31" s="2" t="n">
         <v>0.79</v>
       </c>
@@ -1715,9 +1301,6 @@
       <c r="A32" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D32" s="0" t="n">
         <v>12151.45</v>
       </c>
@@ -1726,9 +1309,6 @@
       <c r="A33" s="3" t="n">
         <v>42433</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D33" s="0" t="n">
         <v>2585.95</v>
       </c>
@@ -1736,9 +1316,6 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>42433</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>9565.5</v>
@@ -1748,9 +1325,6 @@
       <c r="A35" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C35" s="2" t="n">
         <v>-197.86</v>
       </c>
@@ -1759,9 +1333,6 @@
       <c r="A36" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C36" s="2" t="n">
         <v>-2947.77</v>
       </c>
@@ -1770,9 +1341,6 @@
       <c r="A37" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C37" s="2" t="n">
         <v>-38</v>
       </c>
@@ -1781,9 +1349,6 @@
       <c r="A38" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C38" s="2" t="n">
         <v>-84</v>
       </c>
@@ -1792,9 +1357,6 @@
       <c r="A39" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C39" s="2" t="n">
         <v>-119</v>
       </c>
@@ -1803,9 +1365,6 @@
       <c r="A40" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C40" s="2" t="n">
         <v>-256.65</v>
       </c>
@@ -1814,9 +1373,6 @@
       <c r="A41" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C41" s="2" t="n">
         <v>-1.5</v>
       </c>
@@ -1825,9 +1381,6 @@
       <c r="A42" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C42" s="2" t="n">
         <v>-24</v>
       </c>
@@ -1836,9 +1389,6 @@
       <c r="A43" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C43" s="2" t="n">
         <v>899.28</v>
       </c>
@@ -1847,9 +1397,6 @@
       <c r="A44" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C44" s="2" t="n">
         <v>4613.82</v>
       </c>
@@ -1858,9 +1405,6 @@
       <c r="A45" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D45" s="0" t="n">
         <v>13995.77</v>
       </c>
@@ -1869,9 +1413,6 @@
       <c r="A46" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D46" s="0" t="n">
         <v>4613.82</v>
       </c>
@@ -1880,9 +1421,6 @@
       <c r="A47" s="3" t="n">
         <v>42436</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D47" s="0" t="n">
         <v>9381.95</v>
       </c>
@@ -1891,9 +1429,6 @@
       <c r="A48" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C48" s="2" t="n">
         <v>-68</v>
       </c>
@@ -1902,9 +1437,6 @@
       <c r="A49" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C49" s="2" t="n">
         <v>1344.12</v>
       </c>
@@ -1913,9 +1445,6 @@
       <c r="A50" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C50" s="2" t="n">
         <v>6587.1</v>
       </c>
@@ -1924,9 +1453,6 @@
       <c r="A51" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D51" s="0" t="n">
         <v>21858.99</v>
       </c>
@@ -1935,9 +1461,6 @@
       <c r="A52" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D52" s="0" t="n">
         <v>6587.1</v>
       </c>
@@ -1946,9 +1469,6 @@
       <c r="A53" s="3" t="n">
         <v>42437</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D53" s="0" t="n">
         <v>15271.89</v>
       </c>
@@ -1957,9 +1477,6 @@
       <c r="A54" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C54" s="2" t="n">
         <v>-52</v>
       </c>
@@ -1968,9 +1485,6 @@
       <c r="A55" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C55" s="2" t="n">
         <v>3398.7</v>
       </c>
@@ -1979,9 +1493,6 @@
       <c r="A56" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C56" s="2" t="n">
         <v>2468.46</v>
       </c>
@@ -1990,9 +1501,6 @@
       <c r="A57" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D57" s="0" t="n">
         <v>27674.15</v>
       </c>
@@ -2001,9 +1509,6 @@
       <c r="A58" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D58" s="0" t="n">
         <v>2468.46</v>
       </c>
@@ -2012,9 +1517,6 @@
       <c r="A59" s="3" t="n">
         <v>42438</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D59" s="0" t="n">
         <v>25205.69</v>
       </c>
@@ -2023,9 +1525,6 @@
       <c r="A60" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C60" s="2" t="n">
         <v>-408.45</v>
       </c>
@@ -2034,9 +1533,6 @@
       <c r="A61" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C61" s="2" t="n">
         <v>-196.27</v>
       </c>
@@ -2045,9 +1541,6 @@
       <c r="A62" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C62" s="2" t="n">
         <v>-2325</v>
       </c>
@@ -2056,9 +1549,6 @@
       <c r="A63" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C63" s="2" t="n">
         <v>-13.57</v>
       </c>
@@ -2067,9 +1557,6 @@
       <c r="A64" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C64" s="2" t="n">
         <v>-143</v>
       </c>
@@ -2078,9 +1565,6 @@
       <c r="A65" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C65" s="2" t="n">
         <v>-40.55</v>
       </c>
@@ -2089,9 +1573,6 @@
       <c r="A66" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C66" s="2" t="n">
         <v>-24</v>
       </c>
@@ -2100,9 +1581,6 @@
       <c r="A67" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C67" s="2" t="n">
         <v>2857.84</v>
       </c>
@@ -2111,9 +1589,6 @@
       <c r="A68" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C68" s="2" t="n">
         <v>1344.12</v>
       </c>
@@ -2122,9 +1597,6 @@
       <c r="A69" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D69" s="0" t="n">
         <v>28725.27</v>
       </c>
@@ -2133,9 +1605,6 @@
       <c r="A70" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D70" s="0" t="n">
         <v>1344.12</v>
       </c>
@@ -2144,9 +1613,6 @@
       <c r="A71" s="3" t="n">
         <v>42439</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D71" s="0" t="n">
         <v>27381.15</v>
       </c>
@@ -2155,9 +1621,6 @@
       <c r="A72" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C72" s="2" t="n">
         <v>-40</v>
       </c>
@@ -2166,9 +1629,6 @@
       <c r="A73" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C73" s="2" t="n">
         <v>1162.04</v>
       </c>
@@ -2177,9 +1637,6 @@
       <c r="A74" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C74" s="2" t="n">
         <v>3597.16</v>
       </c>
@@ -2188,9 +1645,6 @@
       <c r="A75" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D75" s="0" t="n">
         <v>33444.47</v>
       </c>
@@ -2199,9 +1653,6 @@
       <c r="A76" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D76" s="0" t="n">
         <v>3597.16</v>
       </c>
@@ -2210,9 +1661,6 @@
       <c r="A77" s="3" t="n">
         <v>42440</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D77" s="0" t="n">
         <v>29847.31</v>
       </c>
@@ -2221,9 +1669,6 @@
       <c r="A78" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C78" s="2" t="n">
         <v>-508.5</v>
       </c>
@@ -2232,9 +1677,6 @@
       <c r="A79" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C79" s="2" t="n">
         <v>-615</v>
       </c>
@@ -2243,9 +1685,6 @@
       <c r="A80" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C80" s="2" t="n">
         <v>-28</v>
       </c>
@@ -2254,9 +1693,6 @@
       <c r="A81" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C81" s="2" t="n">
         <v>454.44</v>
       </c>
@@ -2265,9 +1701,6 @@
       <c r="A82" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C82" s="2" t="n">
         <v>444.84</v>
       </c>
@@ -2276,9 +1709,6 @@
       <c r="A83" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C83" s="2" t="n">
         <v>3620.79</v>
       </c>
@@ -2287,9 +1717,6 @@
       <c r="A84" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C84" s="2" t="n">
         <v>-300.39</v>
       </c>
@@ -2298,9 +1725,6 @@
       <c r="A85" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D85" s="0" t="n">
         <v>36512.65</v>
       </c>
@@ -2309,9 +1733,6 @@
       <c r="A86" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D86" s="0" t="n">
         <v>4075.23</v>
       </c>
@@ -2320,9 +1741,6 @@
       <c r="A87" s="3" t="n">
         <v>42443</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D87" s="0" t="n">
         <v>32437.42</v>
       </c>
@@ -2331,9 +1749,6 @@
       <c r="A88" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C88" s="2" t="n">
         <v>-463.33</v>
       </c>
@@ -2342,9 +1757,6 @@
       <c r="A89" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C89" s="2" t="n">
         <v>-1393.67</v>
       </c>
@@ -2353,9 +1765,6 @@
       <c r="A90" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C90" s="2" t="n">
         <v>-272.9</v>
       </c>
@@ -2364,9 +1773,6 @@
       <c r="A91" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C91" s="2" t="n">
         <v>-8072.56</v>
       </c>
@@ -2375,9 +1781,6 @@
       <c r="A92" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C92" s="2" t="n">
         <v>-4334.63</v>
       </c>
@@ -2386,9 +1789,6 @@
       <c r="A93" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C93" s="2" t="n">
         <v>-164</v>
       </c>
@@ -2397,9 +1797,6 @@
       <c r="A94" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C94" s="2" t="n">
         <v>6214.73</v>
       </c>
@@ -2408,9 +1805,6 @@
       <c r="A95" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C95" s="2" t="n">
         <v>11367.88</v>
       </c>
@@ -2419,9 +1813,6 @@
       <c r="A96" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C96" s="2" t="n">
         <v>0.07</v>
       </c>
@@ -2430,9 +1821,6 @@
       <c r="A97" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D97" s="0" t="n">
         <v>39394.24</v>
       </c>
@@ -2441,9 +1829,6 @@
       <c r="A98" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D98" s="0" t="n">
         <v>11367.88</v>
       </c>
@@ -2452,9 +1837,6 @@
       <c r="A99" s="3" t="n">
         <v>42444</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D99" s="0" t="n">
         <v>28026.36</v>
       </c>
@@ -2463,9 +1845,6 @@
       <c r="A100" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C100" s="2" t="n">
         <v>-4698.9</v>
       </c>
@@ -2474,9 +1853,6 @@
       <c r="A101" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C101" s="2" t="n">
         <v>-5358.24</v>
       </c>
@@ -2485,9 +1861,6 @@
       <c r="A102" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C102" s="2" t="n">
         <v>-155</v>
       </c>
@@ -2496,9 +1869,6 @@
       <c r="A103" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C103" s="2" t="n">
         <v>-208.72</v>
       </c>
@@ -2507,9 +1877,6 @@
       <c r="A104" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C104" s="2" t="n">
         <v>-1.5</v>
       </c>
@@ -2518,9 +1885,6 @@
       <c r="A105" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C105" s="2" t="n">
         <v>-616</v>
       </c>
@@ -2529,9 +1893,6 @@
       <c r="A106" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C106" s="2" t="n">
         <v>19532.79</v>
       </c>
@@ -2540,9 +1901,6 @@
       <c r="A107" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C107" s="2" t="n">
         <v>50593.96</v>
       </c>
@@ -2551,9 +1909,6 @@
       <c r="A108" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D108" s="0" t="n">
         <v>98482.63</v>
       </c>
@@ -2562,9 +1917,6 @@
       <c r="A109" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D109" s="0" t="n">
         <v>50593.96</v>
       </c>
@@ -2573,9 +1925,6 @@
       <c r="A110" s="3" t="n">
         <v>42445</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D110" s="0" t="n">
         <v>47888.67</v>
       </c>
@@ -2584,9 +1933,6 @@
       <c r="A111" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C111" s="2" t="n">
         <v>-364.68</v>
       </c>
@@ -2595,9 +1941,6 @@
       <c r="A112" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C112" s="2" t="n">
         <v>-1416.67</v>
       </c>
@@ -2606,9 +1949,6 @@
       <c r="A113" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C113" s="2" t="n">
         <v>-28</v>
       </c>
@@ -2617,9 +1957,6 @@
       <c r="A114" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C114" s="2" t="n">
         <v>453.74</v>
       </c>
@@ -2628,9 +1965,6 @@
       <c r="A115" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C115" s="2" t="n">
         <v>2833.32</v>
       </c>
@@ -2639,9 +1973,6 @@
       <c r="A116" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D116" s="0" t="n">
         <v>99960.34</v>
       </c>
@@ -2650,9 +1981,6 @@
       <c r="A117" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D117" s="0" t="n">
         <v>2833.32</v>
       </c>
@@ -2661,9 +1989,6 @@
       <c r="A118" s="3" t="n">
         <v>42446</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D118" s="0" t="n">
         <v>97127.02</v>
       </c>
@@ -2672,9 +1997,6 @@
       <c r="A119" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C119" s="2" t="n">
         <v>-10047</v>
       </c>
@@ -2683,9 +2005,6 @@
       <c r="A120" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C120" s="2" t="n">
         <v>-15868.33</v>
       </c>
@@ -2694,9 +2013,6 @@
       <c r="A121" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C121" s="2" t="n">
         <v>-278.56</v>
       </c>
@@ -2705,9 +2021,6 @@
       <c r="A122" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C122" s="2" t="n">
         <v>-3300</v>
       </c>
@@ -2716,9 +2029,6 @@
       <c r="A123" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C123" s="2" t="n">
         <v>-3</v>
       </c>
@@ -2727,9 +2037,6 @@
       <c r="A124" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C124" s="2" t="n">
         <v>-21</v>
       </c>
@@ -2738,9 +2045,6 @@
       <c r="A125" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C125" s="2" t="n">
         <v>-5.17</v>
       </c>
@@ -2749,9 +2053,6 @@
       <c r="A126" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C126" s="2" t="n">
         <v>-52</v>
       </c>
@@ -2760,9 +2061,6 @@
       <c r="A127" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C127" s="2" t="n">
         <v>463.53</v>
       </c>
@@ -2771,9 +2069,6 @@
       <c r="A128" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C128" s="2" t="n">
         <v>5147.25</v>
       </c>
@@ -2782,9 +2077,6 @@
       <c r="A129" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C129" s="2" t="n">
         <v>5.46</v>
       </c>
@@ -2793,9 +2085,6 @@
       <c r="A130" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D130" s="0" t="n">
         <v>76001.52</v>
       </c>
@@ -2804,9 +2093,6 @@
       <c r="A131" s="3" t="n">
         <v>42447</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D131" s="0" t="n">
         <v>5147.25</v>
       </c>
@@ -2814,9 +2100,6 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="n">
         <v>42447</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="D132" s="0" t="n">
         <v>70854.27</v>
@@ -2826,9 +2109,6 @@
       <c r="A133" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C133" s="2" t="n">
         <v>-10279.66</v>
       </c>
@@ -2837,9 +2117,6 @@
       <c r="A134" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C134" s="2" t="n">
         <v>-103.05</v>
       </c>
@@ -2848,9 +2125,6 @@
       <c r="A135" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B135" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C135" s="2" t="n">
         <v>-24</v>
       </c>
@@ -2859,9 +2133,6 @@
       <c r="A136" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C136" s="2" t="n">
         <v>2909.7</v>
       </c>
@@ -2870,9 +2141,6 @@
       <c r="A137" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C137" s="2" t="n">
         <v>1576.59</v>
       </c>
@@ -2881,9 +2149,6 @@
       <c r="A138" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C138" s="2" t="n">
         <v>0.04</v>
       </c>
@@ -2892,9 +2157,6 @@
       <c r="A139" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D139" s="0" t="n">
         <v>70081.14</v>
       </c>
@@ -2903,9 +2165,6 @@
       <c r="A140" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D140" s="0" t="n">
         <v>1576.59</v>
       </c>
@@ -2914,9 +2173,6 @@
       <c r="A141" s="3" t="n">
         <v>42450</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D141" s="0" t="n">
         <v>68504.55</v>
       </c>
@@ -2925,9 +2181,6 @@
       <c r="A142" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C142" s="2" t="n">
         <v>-60</v>
       </c>
@@ -2936,9 +2189,6 @@
       <c r="A143" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C143" s="2" t="n">
         <v>-5.17</v>
       </c>
@@ -2947,9 +2197,6 @@
       <c r="A144" s="3" t="n">
         <v>42451</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D144" s="0" t="n">
         <v>70015.97</v>
       </c>
@@ -2958,9 +2205,6 @@
       <c r="A145" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C145" s="2" t="n">
         <v>-377.06</v>
       </c>
@@ -2969,9 +2213,6 @@
       <c r="A146" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C146" s="2" t="n">
         <v>-709.5</v>
       </c>
@@ -2980,9 +2221,6 @@
       <c r="A147" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C147" s="2" t="n">
         <v>-737.81</v>
       </c>
@@ -2991,9 +2229,6 @@
       <c r="A148" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C148" s="2" t="n">
         <v>-5316.54</v>
       </c>
@@ -3002,9 +2237,6 @@
       <c r="A149" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C149" s="2" t="n">
         <v>-3656.16</v>
       </c>
@@ -3013,9 +2245,6 @@
       <c r="A150" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B150" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C150" s="2" t="n">
         <v>0.12</v>
       </c>
@@ -3024,9 +2253,6 @@
       <c r="A151" s="3" t="n">
         <v>42452</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D151" s="0" t="n">
         <v>59219.02</v>
       </c>
@@ -3035,9 +2261,6 @@
       <c r="A152" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C152" s="2" t="n">
         <v>-374.81</v>
       </c>
@@ -3046,9 +2269,6 @@
       <c r="A153" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C153" s="2" t="n">
         <v>-1000</v>
       </c>
@@ -3057,9 +2277,6 @@
       <c r="A154" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C154" s="2" t="n">
         <v>-8060.45</v>
       </c>
@@ -3068,9 +2285,6 @@
       <c r="A155" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C155" s="2" t="n">
         <v>-4612.39</v>
       </c>
@@ -3079,9 +2293,6 @@
       <c r="A156" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B156" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C156" s="2" t="n">
         <v>0.14</v>
       </c>
@@ -3090,9 +2301,6 @@
       <c r="A157" s="3" t="n">
         <v>42453</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D157" s="0" t="n">
         <v>45171.51</v>
       </c>
@@ -3101,9 +2309,6 @@
       <c r="A158" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C158" s="2" t="n">
         <v>-667</v>
       </c>
@@ -3112,9 +2317,6 @@
       <c r="A159" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C159" s="2" t="n">
         <v>-786.25</v>
       </c>
@@ -3123,9 +2325,6 @@
       <c r="A160" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C160" s="2" t="n">
         <v>-325.38</v>
       </c>
@@ -3134,9 +2333,6 @@
       <c r="A161" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B161" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C161" s="2" t="n">
         <v>-8</v>
       </c>
@@ -3145,9 +2341,6 @@
       <c r="A162" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C162" s="2" t="n">
         <v>1046.38</v>
       </c>
@@ -3156,9 +2349,6 @@
       <c r="A163" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C163" s="2" t="n">
         <v>-12384</v>
       </c>
@@ -3167,9 +2357,6 @@
       <c r="A164" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C164" s="2" t="n">
         <v>0.32</v>
       </c>
@@ -3178,9 +2365,6 @@
       <c r="A165" s="3" t="n">
         <v>42457</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D165" s="0" t="n">
         <v>32047.58</v>
       </c>
@@ -3189,9 +2373,6 @@
       <c r="A166" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C166" s="2" t="n">
         <v>-304.2</v>
       </c>
@@ -3200,9 +2381,6 @@
       <c r="A167" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C167" s="2" t="n">
         <v>-3584.7</v>
       </c>
@@ -3211,9 +2389,6 @@
       <c r="A168" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B168" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C168" s="2" t="n">
         <v>-4170.67</v>
       </c>
@@ -3222,9 +2397,6 @@
       <c r="A169" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C169" s="2" t="n">
         <v>-1300</v>
       </c>
@@ -3233,9 +2405,6 @@
       <c r="A170" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C170" s="2" t="n">
         <v>-11627.1</v>
       </c>
@@ -3244,9 +2413,6 @@
       <c r="A171" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C171" s="2" t="n">
         <v>0.49</v>
       </c>
@@ -3255,20 +2421,14 @@
       <c r="A172" s="3" t="n">
         <v>42458</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D172" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C173" s="2" t="n">
         <v>-111.5</v>
       </c>
@@ -3277,9 +2437,6 @@
       <c r="A174" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C174" s="2" t="n">
         <v>-12</v>
       </c>
@@ -3288,9 +2445,6 @@
       <c r="A175" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C175" s="2" t="n">
         <v>463.53</v>
       </c>
@@ -3299,9 +2453,6 @@
       <c r="A176" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C176" s="2" t="n">
         <v>1140.41</v>
       </c>
@@ -3310,9 +2461,6 @@
       <c r="A177" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D177" s="0" t="n">
         <v>12541.84</v>
       </c>
@@ -3321,9 +2469,6 @@
       <c r="A178" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B178" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D178" s="0" t="n">
         <v>1140.41</v>
       </c>
@@ -3332,9 +2477,6 @@
       <c r="A179" s="3" t="n">
         <v>42459</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D179" s="0" t="n">
         <v>11401.43</v>
       </c>
@@ -3343,9 +2485,6 @@
       <c r="A180" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C180" s="2" t="n">
         <v>-500</v>
       </c>
@@ -3354,9 +2493,6 @@
       <c r="A181" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B181" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C181" s="2" t="n">
         <v>-108</v>
       </c>
@@ -3365,9 +2501,6 @@
       <c r="A182" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B182" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C182" s="2" t="n">
         <v>12795.87</v>
       </c>
@@ -3376,9 +2509,6 @@
       <c r="A183" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B183" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C183" s="2" t="n">
         <v>463.53</v>
       </c>
@@ -3387,9 +2517,6 @@
       <c r="A184" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B184" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C184" s="2" t="n">
         <v>-59</v>
       </c>
@@ -3398,9 +2525,6 @@
       <c r="A185" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B185" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D185" s="0" t="n">
         <v>25134.24</v>
       </c>
@@ -3409,9 +2533,6 @@
       <c r="A186" s="3" t="n">
         <v>42460</v>
       </c>
-      <c r="B186" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D186" s="0" t="n">
         <v>463.53</v>
       </c>
@@ -3419,9 +2540,6 @@
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="3" t="n">
         <v>42460</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>3</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>24670.71</v>
